--- a/results/I3_N5_M2_T15_C100_DepCentral_s2_res_fix.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s2_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1575.867940244379</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.09317581765922</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.196936732601294</v>
+        <v>5.79934149303875</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1133.260000000025</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>420.92</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.803063267398706</v>
+        <v>9.200658506961251</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.283234758917612</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.096817494444942</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1130,82 +1130,12 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.44500000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.6099999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0649999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>124.1349999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>132.8049999999997</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6249999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>151.0650000000107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>143.15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>141.6400000000013</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>144.1900000000013</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>145.6100000000013</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1100000000012</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6100000000012</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000012</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>129.6099999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>133.0649999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>124.1349999999997</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>132.8049999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>134.6249999999997</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>92.04000000001056</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>77.55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.11000000000118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>79.61000000000115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>85.08000000000118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>29.60999999999973</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>33.06499999999971</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>24.13499999999972</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>32.80499999999972</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>34.62499999999972</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2220,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2301,7 +2231,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2312,7 +2242,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2323,7 +2253,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2334,67 +2264,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
